--- a/DAILY REPORT/OCT/Pharm Babatunde Arabambi Sept 2025 Reports.xlsx
+++ b/DAILY REPORT/OCT/Pharm Babatunde Arabambi Sept 2025 Reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Itinerary" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="568">
   <si>
     <t xml:space="preserve">EMBASSY PHARMACEUTICALS AND CHEMICAL LTD</t>
   </si>
@@ -1570,75 +1570,48 @@
     <t xml:space="preserve">VALUE OF BUSINESS(IF ANY)</t>
   </si>
   <si>
+    <t xml:space="preserve">MUTTEX PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 BOX OF CARDIOCAP, BPCAP, PROSTAX, FIBRONIL, GLUCOREX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBEKI PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWO ROAD, IBADAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 BOX (CARDIOCAP, NERVERON, CO-Q10 FORTE, PROSTAX, FIBRONIL, RENOAID, EYEMAX FORTE JAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A BOX OF BPCAP, GLUCOREX, 2 BOXES OF CARDIOCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A BOX OF GLUCOREX, 8 PACKS OF CARDIOCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 PKS OF FRATONEBETIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A BOX OF FIBRONIL, 3 PACKS OF GLUCOREX</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSHOGBO</t>
   </si>
   <si>
-    <t xml:space="preserve">ONE BOX OF (LIPIDMAX, NERVERON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 BOXES OF BPCAP, NERVERON AND 1 BOX OF GLUCOREX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 BOX OF NERVERON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUTTEX PHARMACY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 BOX OF CARDIOCAP, BPCAP, PROSTAX, FIBRONIL, GLUCOREX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBEKI PHARMACY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWO ROAD, IBADAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 BOX (CARDIOCAP, NERVERON, CO-Q10 FORTE, PROSTAX, FIBRONIL, RENOAID, EYEMAX FORTE JAR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A BOX OF BPCAP, GLUCOREX, 2 BOXES OF CARDIOCAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A BOX OF GLUCOREX, 8 PACKS OF CARDIOCAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 PKS OF FRATONEBETIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A BOX OF FIBRONIL, 3 PACKS OF GLUCOREX</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 BOX OF COQ10 FORTE, NERVERON, 1 PACK OF GLUCOREX, 2 PACKS OF EYEMAX FORTE CARD, 1 PACK OF EYEMAX FORTE JAR</t>
   </si>
   <si>
-    <t xml:space="preserve">GOODALL PHARMACY (SOR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 BOXES OF BPCAP, PROSTAX, RENOAID, GLUCOREX, 1 BOX OF LIPIDMAX</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 BOX OF PROSTAX</t>
   </si>
   <si>
     <t xml:space="preserve">2 BOX OF FIBRONIL</t>
   </si>
   <si>
-    <t xml:space="preserve">15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKOD PHARMACY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A BOX OF GLUCOREX, RENOAID, FIBRONIL, PROSTAX</t>
-  </si>
-  <si>
     <t xml:space="preserve">16)</t>
   </si>
   <si>
@@ -1663,34 +1636,22 @@
     <t xml:space="preserve">2 BOXES OF NERVERON</t>
   </si>
   <si>
-    <t xml:space="preserve">20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 BOX OF EYEMAX FORTE CARD</t>
-  </si>
-  <si>
     <t xml:space="preserve">21)</t>
   </si>
   <si>
     <t xml:space="preserve">3 BOXES OF EYEMAX FORTE CARD</t>
   </si>
   <si>
-    <t xml:space="preserve">22)</t>
+    <t xml:space="preserve">23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 BOXES OF EYEMAX FORTE CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24)</t>
   </si>
   <si>
     <t xml:space="preserve">1 BOX OF EYEMAX CARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 BOXES OF EYEMAX FORTE CARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24)</t>
   </si>
   <si>
     <t xml:space="preserve">25)</t>
@@ -1881,6 +1842,9 @@
   </si>
   <si>
     <t xml:space="preserve">DR. AKINYELE O.A. (CONSULTANT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFE</t>
   </si>
   <si>
     <t xml:space="preserve">PROF. ADEBAYO R.(CONSULTANT)</t>
@@ -3076,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53:C59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="1" sqref="40:40 C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6261,7 +6225,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="1" sqref="C53:C59 C45"/>
+      <selection pane="topLeft" activeCell="C45" activeCellId="1" sqref="40:40 C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6349,7 +6313,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -6516,7 +6480,7 @@
     </row>
     <row r="15" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="54" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D15" s="54" t="n">
         <v>174000</v>
@@ -6613,7 +6577,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49"/>
       <c r="B22" s="49" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -6756,7 +6720,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="49" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -6996,7 +6960,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="84"/>
       <c r="B48" s="84" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
@@ -7297,7 +7261,7 @@
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D86" activeCellId="1" sqref="C53:C59 D86"/>
+      <selection pane="topLeft" activeCell="D86" activeCellId="1" sqref="40:40 D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7315,24 +7279,24 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="86" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="87" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="89" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="91" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D6" s="92"/>
     </row>
@@ -7340,7 +7304,7 @@
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -7351,34 +7315,34 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="93" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E10" s="94" t="s">
         <v>459</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="H10" s="94" t="s">
         <v>307</v>
       </c>
       <c r="I10" s="95" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="93"/>
       <c r="C11" s="94" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
@@ -7392,16 +7356,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E12" s="98" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G12" s="99" t="s">
         <v>345</v>
@@ -7410,7 +7374,7 @@
         <v>8023173498</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7418,16 +7382,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G13" s="103" t="s">
         <v>74</v>
@@ -7436,7 +7400,7 @@
         <v>8056564360</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,16 +7408,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>351</v>
@@ -7462,7 +7426,7 @@
         <v>8036968081</v>
       </c>
       <c r="I14" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7470,16 +7434,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D15" s="102" t="s">
         <v>132</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G15" s="102" t="s">
         <v>345</v>
@@ -7488,7 +7452,7 @@
         <v>8037149610</v>
       </c>
       <c r="I15" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,16 +7460,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E16" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G16" s="102" t="s">
         <v>345</v>
@@ -7514,7 +7478,7 @@
         <v>8067747121</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7522,16 +7486,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E17" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G17" s="102" t="s">
         <v>345</v>
@@ -7540,7 +7504,7 @@
         <v>8056564360</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,7 +7550,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="101"/>
       <c r="C22" s="84" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
@@ -7600,25 +7564,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E23" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="102" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G23" s="102" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H23" s="103" t="n">
         <v>8023244960</v>
       </c>
       <c r="I23" s="104" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7626,25 +7590,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G24" s="102" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H24" s="49" t="n">
         <v>8037024916</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,7 +7655,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="101"/>
       <c r="C29" s="103" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
@@ -7705,16 +7669,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E30" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="102" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G30" s="102" t="s">
         <v>364</v>
@@ -7723,7 +7687,7 @@
         <v>8030757075</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,16 +7695,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E31" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G31" s="102" t="s">
         <v>364</v>
@@ -7749,7 +7713,7 @@
         <v>8032851122</v>
       </c>
       <c r="I31" s="104" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,10 +7778,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E37" s="102" t="s">
         <v>13</v>
@@ -7832,7 +7796,7 @@
         <v>8060193855</v>
       </c>
       <c r="I37" s="104" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +7843,7 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="46" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -7893,7 +7857,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>205</v>
@@ -7911,7 +7875,7 @@
         <v>8039706833</v>
       </c>
       <c r="I43" s="104" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +7883,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D44" s="102" t="s">
         <v>205</v>
@@ -7937,7 +7901,7 @@
         <v>8023228257</v>
       </c>
       <c r="I44" s="104" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7945,7 +7909,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D45" s="102" t="s">
         <v>205</v>
@@ -7963,7 +7927,7 @@
         <v>8179125234</v>
       </c>
       <c r="I45" s="104" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,7 +8381,7 @@
   <dimension ref="A3:AMJ151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B127" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C138" activeCellId="1" sqref="C53:C59 C138"/>
+      <selection pane="topLeft" activeCell="C138" activeCellId="1" sqref="40:40 C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20923,7 +20887,7 @@
   <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="1" sqref="C53:C59 N13"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="1" sqref="40:40 N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21556,7 +21520,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="1" sqref="C53:C59 M31"/>
+      <selection pane="topLeft" activeCell="M31" activeCellId="1" sqref="40:40 M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22761,7 +22725,7 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="1" sqref="C53:C59 A77"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="1" sqref="40:40 A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28758,7 +28722,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="C53:C59 A44"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="40:40 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31394,7 +31358,7 @@
   <dimension ref="A3:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="C53:C59 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="40:40 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42118,8 +42082,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="1" sqref="C53:C59 F43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="40:40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43243,78 +43207,21 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="E12" s="61" t="n">
-        <v>8035025692</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>464</v>
-      </c>
-      <c r="G12" s="61" t="n">
-        <v>83890</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="E13" s="61" t="n">
-        <v>8035025692</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="G13" s="61" t="n">
-        <v>384900</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="G14" s="61" t="n">
-        <v>48700</v>
-      </c>
-    </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="61" t="s">
         <v>406</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E16" s="61" t="n">
         <v>7030099897</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G16" s="61" t="n">
         <v>150000</v>
@@ -43325,16 +43232,16 @@
         <v>408</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E17" s="61" t="n">
         <v>8055232356</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G17" s="61" t="n">
         <v>158670</v>
@@ -43354,7 +43261,7 @@
         <v>8030821965</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G19" s="61" t="n">
         <v>210120</v>
@@ -43374,7 +43281,7 @@
         <v>8030821965</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G20" s="61" t="n">
         <v>146480</v>
@@ -43391,7 +43298,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G21" s="61" t="n">
         <v>14120</v>
@@ -43411,7 +43318,7 @@
         <v>8064933094</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G24" s="61" t="n">
         <v>92500</v>
@@ -43425,35 +43332,16 @@
         <v>148</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G25" s="61" t="n">
         <v>150940</v>
       </c>
     </row>
-    <row r="26" s="74" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="74" t="n">
-        <v>8035353340</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>479</v>
-      </c>
-      <c r="G26" s="74" t="n">
-        <v>487360</v>
-      </c>
-    </row>
+    <row r="26" s="74" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" s="74" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="61" t="s">
@@ -43469,7 +43357,7 @@
         <v>8033456012</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G28" s="61" t="n">
         <v>54000</v>
@@ -43489,32 +43377,15 @@
         <v>8033456012</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G29" s="61" t="n">
         <v>95000</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="61" t="s">
-        <v>482</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="G31" s="61" t="n">
-        <v>253000</v>
-      </c>
-    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="61" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>333</v>
@@ -43523,7 +43394,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="G32" s="61" t="n">
         <v>211660</v>
@@ -43531,7 +43402,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="61" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>334</v>
@@ -43543,7 +43414,7 @@
         <v>8168919404</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G34" s="61" t="n">
         <v>33500</v>
@@ -43551,7 +43422,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="61" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>334</v>
@@ -43560,7 +43431,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G35" s="61" t="n">
         <v>347850</v>
@@ -43568,7 +43439,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="61" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>248</v>
@@ -43577,66 +43448,32 @@
         <v>13</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G37" s="61" t="n">
         <v>88780</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="G38" s="61" t="n">
-        <v>50000</v>
-      </c>
-    </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="61" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C39" s="61" t="s">
         <v>144</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G39" s="61" t="n">
         <v>144000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="61" t="s">
-        <v>499</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="G40" s="61" t="n">
-        <v>42500</v>
-      </c>
-    </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="61" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>263</v>
@@ -43645,7 +43482,7 @@
         <v>13</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G41" s="61" t="n">
         <v>16000</v>
@@ -43653,7 +43490,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="61" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>40</v>
@@ -43662,7 +43499,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G42" s="61" t="n">
         <v>44400</v>
@@ -43670,16 +43507,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="61" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D43" s="61" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G43" s="61" t="n">
         <v>199000</v>
@@ -44713,11 +44550,11 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="61" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G52" s="61" t="n">
         <f aca="false">SUM(G12:G51)</f>
-        <v>3507370</v>
+        <v>2157020</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44730,7 +44567,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="61" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G60" s="61" t="n">
         <v>3956020</v>
@@ -44794,7 +44631,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="C53:C59 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="40:40 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44815,7 +44652,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44825,7 +44662,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44833,13 +44670,13 @@
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
       <c r="D6" s="80" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="80"/>
@@ -44868,75 +44705,75 @@
         <v>7</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="80" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="L7" s="80" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="M7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="N7" s="80" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="R7" s="80" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="S7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="T7" s="80" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="U7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="V7" s="82" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="W7" s="80" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="X7" s="80" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="Y7" s="80"/>
       <c r="Z7" s="80" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="AA7" s="80"/>
     </row>
@@ -44990,7 +44827,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="n">
@@ -45035,7 +44872,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80" t="n">
@@ -45080,7 +44917,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80" t="n">
@@ -45125,7 +44962,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80" t="n">
@@ -45170,7 +45007,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80" t="n">
@@ -45260,7 +45097,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="80" t="n">
@@ -45305,7 +45142,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="n">
@@ -45350,7 +45187,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="n">
@@ -45395,7 +45232,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="n">
@@ -45440,7 +45277,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="n">
@@ -45483,7 +45320,7 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="83"/>
       <c r="B20" s="83" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C20" s="83"/>
       <c r="D20" s="83" t="n">

--- a/DAILY REPORT/OCT/Pharm Babatunde Arabambi Sept 2025 Reports.xlsx
+++ b/DAILY REPORT/OCT/Pharm Babatunde Arabambi Sept 2025 Reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Itinerary" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="567">
   <si>
     <t xml:space="preserve">EMBASSY PHARMACEUTICALS AND CHEMICAL LTD</t>
   </si>
@@ -1627,7 +1627,7 @@
     <t xml:space="preserve">18)</t>
   </si>
   <si>
-    <t xml:space="preserve">A BOX OF COQ10/FORTE EYEMAX/FORTE JAR, FIBRONIL, 2 BOXES OF BPCAP</t>
+    <t xml:space="preserve">FIBRONIL</t>
   </si>
   <si>
     <t xml:space="preserve">19)</t>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t xml:space="preserve">EYEMAX FORTE CARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRONIL</t>
   </si>
   <si>
     <t xml:space="preserve">FRATONEBETIC</t>
@@ -3040,8 +3037,8 @@
   </sheetPr>
   <dimension ref="A2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="1" sqref="40:40 C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B172" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D184" activeCellId="0" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6224,8 +6221,8 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="1" sqref="40:40 C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -6480,7 +6477,7 @@
     </row>
     <row r="15" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D15" s="54" t="n">
         <v>174000</v>
@@ -6577,7 +6574,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49"/>
       <c r="B22" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -6720,7 +6717,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -6960,7 +6957,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="84"/>
       <c r="B48" s="84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
@@ -7261,7 +7258,7 @@
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D86" activeCellId="1" sqref="40:40 D86"/>
+      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7279,24 +7276,24 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="91" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D6" s="92"/>
     </row>
@@ -7304,7 +7301,7 @@
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -7315,34 +7312,34 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="D10" s="94" t="s">
         <v>535</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>536</v>
       </c>
       <c r="E10" s="94" t="s">
         <v>459</v>
       </c>
       <c r="F10" s="94" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" s="94" t="s">
         <v>537</v>
-      </c>
-      <c r="G10" s="94" t="s">
-        <v>538</v>
       </c>
       <c r="H10" s="94" t="s">
         <v>307</v>
       </c>
       <c r="I10" s="95" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="93"/>
       <c r="C11" s="94" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
@@ -7356,16 +7353,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="97" t="s">
+        <v>540</v>
+      </c>
+      <c r="D12" s="98" t="s">
         <v>541</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>542</v>
       </c>
       <c r="E12" s="98" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G12" s="99" t="s">
         <v>345</v>
@@ -7374,7 +7371,7 @@
         <v>8023173498</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,16 +7379,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G13" s="103" t="s">
         <v>74</v>
@@ -7400,7 +7397,7 @@
         <v>8056564360</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,16 +7405,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>351</v>
@@ -7426,7 +7423,7 @@
         <v>8036968081</v>
       </c>
       <c r="I14" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,16 +7431,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D15" s="102" t="s">
         <v>132</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G15" s="102" t="s">
         <v>345</v>
@@ -7452,7 +7449,7 @@
         <v>8037149610</v>
       </c>
       <c r="I15" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,16 +7457,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E16" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G16" s="102" t="s">
         <v>345</v>
@@ -7478,7 +7475,7 @@
         <v>8067747121</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7486,16 +7483,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E17" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G17" s="102" t="s">
         <v>345</v>
@@ -7504,7 +7501,7 @@
         <v>8056564360</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,7 +7547,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="101"/>
       <c r="C22" s="84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
@@ -7564,25 +7561,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E23" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G23" s="102" t="s">
         <v>554</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>555</v>
       </c>
       <c r="H23" s="103" t="n">
         <v>8023244960</v>
       </c>
       <c r="I23" s="104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,25 +7587,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G24" s="102" t="s">
         <v>554</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>555</v>
       </c>
       <c r="H24" s="49" t="n">
         <v>8037024916</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7652,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="101"/>
       <c r="C29" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
@@ -7669,16 +7666,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E30" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G30" s="102" t="s">
         <v>364</v>
@@ -7687,7 +7684,7 @@
         <v>8030757075</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,16 +7692,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E31" s="102" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G31" s="102" t="s">
         <v>364</v>
@@ -7713,7 +7710,7 @@
         <v>8032851122</v>
       </c>
       <c r="I31" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7778,10 +7775,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="D37" s="102" t="s">
         <v>562</v>
-      </c>
-      <c r="D37" s="102" t="s">
-        <v>563</v>
       </c>
       <c r="E37" s="102" t="s">
         <v>13</v>
@@ -7796,7 +7793,7 @@
         <v>8060193855</v>
       </c>
       <c r="I37" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,7 +7840,7 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -7857,7 +7854,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>205</v>
@@ -7875,7 +7872,7 @@
         <v>8039706833</v>
       </c>
       <c r="I43" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,7 +7880,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D44" s="102" t="s">
         <v>205</v>
@@ -7901,7 +7898,7 @@
         <v>8023228257</v>
       </c>
       <c r="I44" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,7 +7906,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D45" s="102" t="s">
         <v>205</v>
@@ -7927,7 +7924,7 @@
         <v>8179125234</v>
       </c>
       <c r="I45" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,8 +8377,8 @@
   </sheetPr>
   <dimension ref="A3:AMJ151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B127" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C138" activeCellId="1" sqref="40:40 C138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B133" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E150" activeCellId="0" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20887,7 +20884,7 @@
   <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="1" sqref="40:40 N13"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21520,7 +21517,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="1" sqref="40:40 M31"/>
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22725,7 +22722,7 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="1" sqref="40:40 A77"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28722,7 +28719,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="40:40 A44"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31358,7 +31355,7 @@
   <dimension ref="A3:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="40:40 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42082,8 +42079,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="40:40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43434,7 +43431,7 @@
         <v>482</v>
       </c>
       <c r="G35" s="61" t="n">
-        <v>347850</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44553,24 +44550,19 @@
         <v>494</v>
       </c>
       <c r="G52" s="61" t="n">
-        <f aca="false">SUM(G12:G51)</f>
-        <v>2157020</v>
+        <f aca="false">SUM(G16:G51)</f>
+        <v>1855170</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="G56" s="78" t="n">
-        <v>396150</v>
-      </c>
+      <c r="G56" s="78"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="61" t="s">
         <v>495</v>
-      </c>
-      <c r="G60" s="61" t="n">
-        <v>3956020</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44631,7 +44623,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="40:40 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45097,7 +45089,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="80" t="n">
@@ -45142,7 +45134,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="n">
@@ -45187,7 +45179,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="n">
@@ -45232,7 +45224,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="n">
@@ -45277,7 +45269,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="n">
